--- a/nr-update-schemas/ig/StructureDefinition-DESC1.xlsx
+++ b/nr-update-schemas/ig/StructureDefinition-DESC1.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:04:41+00:00</t>
+    <t>2025-07-28T13:13:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-schemas/ig/StructureDefinition-DESC1.xlsx
+++ b/nr-update-schemas/ig/StructureDefinition-DESC1.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:13:45+00:00</t>
+    <t>2025-07-28T13:15:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-schemas/ig/StructureDefinition-DESC1.xlsx
+++ b/nr-update-schemas/ig/StructureDefinition-DESC1.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:15:42+00:00</t>
+    <t>2025-07-28T13:16:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-schemas/ig/StructureDefinition-DESC1.xlsx
+++ b/nr-update-schemas/ig/StructureDefinition-DESC1.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:16:41+00:00</t>
+    <t>2025-07-28T13:25:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-schemas/ig/StructureDefinition-DESC1.xlsx
+++ b/nr-update-schemas/ig/StructureDefinition-DESC1.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:25:08+00:00</t>
+    <t>2025-07-28T13:28:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-schemas/ig/StructureDefinition-DESC1.xlsx
+++ b/nr-update-schemas/ig/StructureDefinition-DESC1.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/DESC1</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/DESC1</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:28:11+00:00</t>
+    <t>2025-07-28T15:40:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,7 +102,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Diplome</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Diplome</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/nr-update-schemas/ig/StructureDefinition-DESC1.xlsx
+++ b/nr-update-schemas/ig/StructureDefinition-DESC1.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T15:40:53+00:00</t>
+    <t>2025-07-28T15:46:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-schemas/ig/StructureDefinition-DESC1.xlsx
+++ b/nr-update-schemas/ig/StructureDefinition-DESC1.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T15:46:53+00:00</t>
+    <t>2025-07-29T07:47:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-schemas/ig/StructureDefinition-DESC1.xlsx
+++ b/nr-update-schemas/ig/StructureDefinition-DESC1.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T07:47:20+00:00</t>
+    <t>2025-08-04T15:47:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
